--- a/xlsx/Yes California_intext.xlsx
+++ b/xlsx/Yes California_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_加州_Yes California</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>美國分裂</t>
+    <t>美国分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%8B%89%E8%95%8A</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%84%AB%E9%9B%A2%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>英國脫離歐盟</t>
+    <t>英国脱离欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>州長</t>
+    <t>州长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Louis_J._Marinelli</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
+    <t>华盛顿特区</t>
   </si>
 </sst>
 </file>
